--- a/data/trans_orig/IP33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{846199F4-A8F7-47A5-B45F-07220B7693C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B95019-6AB2-4F0E-9EB8-BD923C4153F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B73D6D-CBCB-43BA-A0D3-C83D935E8A65}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A94B50C7-4317-40DB-8D11-776952CE1C69}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="293">
   <si>
     <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
   </si>
@@ -71,6 +71,69 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>996.0</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -86,72 +149,132 @@
     <t>1,65%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
     <t>4,07%</t>
   </si>
   <si>
@@ -161,124 +284,58 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -290,121 +347,184 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
     <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
   </si>
   <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
     <t>2,42%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -416,121 +536,58 @@
     <t>1,56%</t>
   </si>
   <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -542,63 +599,63 @@
     <t>0,5%</t>
   </si>
   <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
     <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
   </si>
   <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
     <t>1,84%</t>
   </si>
   <si>
@@ -608,178 +665,178 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -791,63 +848,18 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
     <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -860,13 +872,31 @@
     <t>81,26%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -878,43 +908,16 @@
     <t>93,64%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
     <t>96,1%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD179643-CD90-4858-AF1C-A62CBC5521FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E03CEB-C0EF-4792-9416-0A987C9E8F31}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1420,155 +1423,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>18215</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>15923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>34138</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21325</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7">
+        <v>21731</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>63</v>
+      </c>
+      <c r="N5" s="7">
+        <v>43056</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
-        <v>18215</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15923</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>52</v>
-      </c>
-      <c r="N5" s="7">
-        <v>34138</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>21325</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>21731</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>43056</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,13 +1586,13 @@
         <v>39540</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -1598,13 +1601,13 @@
         <v>37654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>115</v>
@@ -1613,168 +1616,168 @@
         <v>77194</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>18030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>23667</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>41697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>23895</v>
+        <v>10994</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>28666</v>
+        <v>4456</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="N9" s="7">
-        <v>52560</v>
+        <v>15450</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7117</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4957</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>12075</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,204 +1786,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>31012</v>
+        <v>29024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>33623</v>
+        <v>28123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>64635</v>
+        <v>57147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>23895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>28666</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>52560</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>18030</v>
+        <v>7117</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>23667</v>
+        <v>4957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>41697</v>
+        <v>12075</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>10994</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>4456</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>15450</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,204 +1992,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7">
-        <v>29024</v>
+        <v>31012</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I15" s="7">
-        <v>28123</v>
+        <v>33623</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>57147</v>
+        <v>64635</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>996</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>60140</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>68255</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>128396</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7">
+        <v>39436</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="7">
-        <v>60140</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>68255</v>
+        <v>31145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="N17" s="7">
-        <v>128396</v>
+        <v>70581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>39436</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>31145</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>70581</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2204,13 @@
         <v>99576</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>146</v>
@@ -2216,13 +2219,13 @@
         <v>99400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>294</v>
@@ -2231,13 +2234,13 @@
         <v>198977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0375033-6628-4C1D-A3A4-5652AE48B785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61BEDF5-3AD2-4D52-99BC-993D4A9F8642}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,7 +2276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2370,155 +2373,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>26635</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>19356</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>45990</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>26635</v>
+        <v>28147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I5" s="7">
-        <v>19356</v>
+        <v>31024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="N5" s="7">
-        <v>45990</v>
+        <v>59171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>28147</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>31024</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M6" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>59171</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2536,13 @@
         <v>54782</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -2548,13 +2551,13 @@
         <v>50380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>156</v>
@@ -2563,168 +2566,168 @@
         <v>105161</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>21118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>27769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>48886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>39825</v>
+        <v>10053</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H9" s="7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>29690</v>
+        <v>19091</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M9" s="7">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>69515</v>
+        <v>29145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6014</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>9006</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>15020</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,204 +2736,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>45839</v>
+        <v>31171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>38696</v>
+        <v>46860</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>84535</v>
+        <v>78031</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>996</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>39825</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>29690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>69515</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>21118</v>
+        <v>6014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>27769</v>
+        <v>9006</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>48886</v>
+        <v>15020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>10053</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>19091</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>29145</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,204 +2942,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D15" s="7">
-        <v>31171</v>
+        <v>45839</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I15" s="7">
-        <v>46860</v>
+        <v>38696</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="N15" s="7">
-        <v>78031</v>
+        <v>84535</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>996</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>87578</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>76814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>164392</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>87578</v>
+        <v>44214</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>76814</v>
+        <v>59122</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="N17" s="7">
-        <v>164392</v>
+        <v>103336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>44214</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H18" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>59122</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>103336</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3154,13 @@
         <v>131792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -3166,13 +3169,13 @@
         <v>135936</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>385</v>
@@ -3181,13 +3184,13 @@
         <v>267728</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDB2B36-8CAD-4DD7-862A-DD67496BBE5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2D0CF1-B7E1-485B-BD43-567471AEF7AD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3223,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3320,155 +3323,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>33146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>23103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>56249</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>33146</v>
+        <v>36685</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7">
-        <v>23103</v>
+        <v>37268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="N5" s="7">
-        <v>56249</v>
+        <v>73953</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>36685</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>37268</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>73953</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3486,13 @@
         <v>69831</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -3498,13 +3501,13 @@
         <v>60371</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>200</v>
@@ -3513,165 +3516,165 @@
         <v>130202</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>40597</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>38731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>79328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>47661</v>
+        <v>21498</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I9" s="7">
-        <v>50261</v>
+        <v>24487</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M9" s="7">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="N9" s="7">
-        <v>97923</v>
+        <v>45984</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>12909</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>13629</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>26538</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>227</v>
@@ -3683,204 +3686,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>60570</v>
+        <v>62095</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I11" s="7">
-        <v>63890</v>
+        <v>63218</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="N11" s="7">
-        <v>124461</v>
+        <v>125312</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>47661</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>50261</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>97923</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>40597</v>
+        <v>12909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>38731</v>
+        <v>13629</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>79328</v>
+        <v>26538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>21498</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>24487</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>45984</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,204 +3892,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>81</v>
+      </c>
+      <c r="D15" s="7">
+        <v>60570</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>90</v>
       </c>
-      <c r="D15" s="7">
-        <v>62095</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="7">
-        <v>95</v>
-      </c>
       <c r="I15" s="7">
-        <v>63218</v>
+        <v>63890</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N15" s="7">
-        <v>125312</v>
+        <v>124461</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>996</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>121405</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>112095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>233500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="D17" s="7">
-        <v>121405</v>
+        <v>71091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="I17" s="7">
-        <v>112095</v>
+        <v>75384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="N17" s="7">
-        <v>233500</v>
+        <v>146475</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>71091</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H18" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>75384</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M18" s="7">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>146475</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4104,13 @@
         <v>192496</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>282</v>
@@ -4116,13 +4119,13 @@
         <v>187479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>556</v>
@@ -4131,13 +4134,13 @@
         <v>379975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6A0F9D-C40E-40DE-8BB8-43462F2367C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163FE52-4629-405E-819D-91F49708B1BA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4173,7 +4176,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4270,59 +4273,59 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1504</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2821</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>4325</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4331,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4346,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4361,64 +4364,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1504</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2821</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4325</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>275</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4436,13 @@
         <v>1504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4448,13 +4451,13 @@
         <v>2821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4463,72 +4466,72 @@
         <v>4325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>11710</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="M8" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>23085</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4537,94 +4540,94 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5522</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="7">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>6225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,108 +4636,108 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>11375</v>
+        <v>703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>11710</v>
+        <v>5522</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>23085</v>
+        <v>6225</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>5522</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4743,94 +4746,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>11375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>11710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>23085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,108 +4842,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>703</v>
+        <v>11375</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>5522</v>
+        <v>11710</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7">
-        <v>6225</v>
+        <v>23085</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>996</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>13583</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>20053</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>33636</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4949,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4964,79 +4967,79 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>13583</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>20053</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>33636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5054,13 @@
         <v>13583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -5066,13 +5069,13 @@
         <v>20053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -5081,13 +5084,13 @@
         <v>33636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B95019-6AB2-4F0E-9EB8-BD923C4153F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{811F4879-36CE-4D46-972F-DACF6EB50B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A94B50C7-4317-40DB-8D11-776952CE1C69}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56208CFF-8E5B-46FB-A51A-0014B239773C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="353">
   <si>
     <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
   </si>
@@ -68,856 +68,1036 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>996.0</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>996.0</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>59,79%</t>
   </si>
   <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
   </si>
   <si>
     <t>61,45%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
   </si>
   <si>
     <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
     <t>3,9%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
   </si>
 </sst>
 </file>
@@ -928,7 +1108,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1024,39 +1204,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1108,7 +1288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1219,13 +1399,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1234,6 +1407,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1298,19 +1478,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E03CEB-C0EF-4792-9416-0A987C9E8F31}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED581D95-EA51-4C29-B5CC-760207274E85}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1427,10 +1627,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>18215</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1442,133 +1642,133 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15923</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>52</v>
-      </c>
-      <c r="N4" s="7">
-        <v>34138</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12997</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10804</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7">
-        <v>21325</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>35</v>
+      </c>
+      <c r="N5" s="7">
+        <v>23802</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>32</v>
-      </c>
-      <c r="I5" s="7">
-        <v>21731</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>63</v>
-      </c>
-      <c r="N5" s="7">
-        <v>43056</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10587</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7303</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>27</v>
+      </c>
+      <c r="N6" s="7">
+        <v>17890</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -1580,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>39540</v>
+        <v>23584</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1595,10 +1795,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>37654</v>
+        <v>18107</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1610,10 +1810,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>77194</v>
+        <v>41692</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1633,148 +1833,148 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>18030</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="7">
-        <v>34</v>
-      </c>
-      <c r="I8" s="7">
-        <v>23667</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="7">
-        <v>61</v>
-      </c>
-      <c r="N8" s="7">
-        <v>41697</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>10994</v>
+        <v>17853</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="7">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7">
+        <v>14857</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="7">
+        <v>48</v>
+      </c>
+      <c r="N9" s="7">
+        <v>32709</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H9" s="7">
-        <v>7</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4456</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="7">
-        <v>23</v>
-      </c>
-      <c r="N9" s="7">
-        <v>15450</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>18986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
+        <v>36</v>
+      </c>
+      <c r="I10" s="7">
+        <v>24831</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
+        <v>65</v>
+      </c>
+      <c r="N10" s="7">
+        <v>43817</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -1786,10 +1986,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>29024</v>
+        <v>36839</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -1801,10 +2001,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>28123</v>
+        <v>39688</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -1816,10 +2016,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="N11" s="7">
-        <v>57147</v>
+        <v>76526</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1839,148 +2039,148 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>23895</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>28666</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="7">
-        <v>78</v>
-      </c>
-      <c r="N12" s="7">
-        <v>52560</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>7117</v>
+        <v>3519</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2695</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="7">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6214</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4957</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12075</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7">
+        <v>13325</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
         <v>30</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>20382</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="7">
+        <v>50</v>
+      </c>
+      <c r="N14" s="7">
+        <v>33707</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -1992,10 +2192,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
-        <v>31012</v>
+        <v>16844</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2007,10 +2207,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I15" s="7">
-        <v>33623</v>
+        <v>23077</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2022,10 +2222,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="N15" s="7">
-        <v>64635</v>
+        <v>39921</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2039,154 +2239,154 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>60140</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="H16" s="7">
-        <v>100</v>
-      </c>
-      <c r="I16" s="7">
-        <v>68255</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="7">
-        <v>191</v>
-      </c>
-      <c r="N16" s="7">
-        <v>128396</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>39436</v>
+        <v>5068</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2789</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="7">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7856</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H17" s="7">
-        <v>46</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31145</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="7">
-        <v>103</v>
-      </c>
-      <c r="N17" s="7">
-        <v>70581</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>17242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="7">
+        <v>23</v>
+      </c>
+      <c r="I18" s="7">
+        <v>15739</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="7">
+        <v>49</v>
+      </c>
+      <c r="N18" s="7">
+        <v>32981</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>101</v>
@@ -2198,55 +2398,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7">
+        <v>22310</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27</v>
+      </c>
+      <c r="I19" s="7">
+        <v>18528</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>60</v>
+      </c>
+      <c r="N19" s="7">
+        <v>40837</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>39436</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="7">
+        <v>46</v>
+      </c>
+      <c r="I21" s="7">
+        <v>31145</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="7">
+        <v>103</v>
+      </c>
+      <c r="N21" s="7">
+        <v>70581</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>91</v>
+      </c>
+      <c r="D22" s="7">
+        <v>60140</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="7">
+        <v>100</v>
+      </c>
+      <c r="I22" s="7">
+        <v>68255</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M22" s="7">
+        <v>191</v>
+      </c>
+      <c r="N22" s="7">
+        <v>128396</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>148</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>99576</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>146</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>99400</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>294</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>198977</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2259,8 +2671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61BEDF5-3AD2-4D52-99BC-993D4A9F8642}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB18A2-FEAF-4E8A-A92B-F44189E26B71}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2276,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2377,151 +2789,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>26635</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>19356</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>45990</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>28147</v>
+        <v>22194</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>31024</v>
+        <v>23971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>59171</v>
+        <v>46165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>12804</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>9411</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>22215</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,10 +2942,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>54782</v>
+        <v>34998</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2545,10 +2957,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>50380</v>
+        <v>33382</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2560,10 +2972,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="N7" s="7">
-        <v>105161</v>
+        <v>68380</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2583,151 +2995,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>21118</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>27769</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>48886</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>10053</v>
+        <v>13890</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I9" s="7">
-        <v>19091</v>
+        <v>21827</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="M9" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N9" s="7">
-        <v>29145</v>
+        <v>35717</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>27929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>28866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>56794</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,10 +3148,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>31171</v>
+        <v>41819</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2751,10 +3163,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7">
-        <v>46860</v>
+        <v>50693</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2766,10 +3178,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="N11" s="7">
-        <v>78031</v>
+        <v>92511</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2789,151 +3201,151 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>39825</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="H12" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>29690</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M12" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>69515</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4103</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
-        <v>6014</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
       <c r="I13" s="7">
-        <v>9006</v>
+        <v>6646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>15020</v>
+        <v>10748</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>17820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>19303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>37124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,10 +3354,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>45839</v>
+        <v>21923</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2957,10 +3369,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>38696</v>
+        <v>25949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2972,10 +3384,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="N15" s="7">
-        <v>84535</v>
+        <v>47872</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2989,157 +3401,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>87578</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>76814</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="M16" s="7">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>164392</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>44214</v>
+        <v>4027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>59122</v>
+        <v>6678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>103336</v>
+        <v>10705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>29025</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>19235</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>48260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,55 +3560,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>49</v>
+      </c>
+      <c r="D19" s="7">
+        <v>33052</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>37</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25913</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>86</v>
+      </c>
+      <c r="N19" s="7">
+        <v>58965</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>61</v>
+      </c>
+      <c r="D21" s="7">
+        <v>44214</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="7">
+        <v>86</v>
+      </c>
+      <c r="I21" s="7">
+        <v>59122</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="7">
+        <v>147</v>
+      </c>
+      <c r="N21" s="7">
+        <v>103336</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>126</v>
+      </c>
+      <c r="D22" s="7">
+        <v>87578</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="7">
+        <v>112</v>
+      </c>
+      <c r="I22" s="7">
+        <v>76814</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" s="7">
+        <v>238</v>
+      </c>
+      <c r="N22" s="7">
+        <v>164392</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>187</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>131792</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>198</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>135936</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>385</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>267728</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3209,8 +3833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2D0CF1-B7E1-485B-BD43-567471AEF7AD}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E58068-6899-4DBC-9CF2-E62446924A82}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3226,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3327,151 +3951,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>33146</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>23103</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>56249</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>36685</v>
+        <v>28247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>37268</v>
+        <v>27111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="N5" s="7">
-        <v>73953</v>
+        <v>55357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>14786</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>14886</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>29672</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,10 +4104,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>69831</v>
+        <v>43033</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -3495,10 +4119,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>60371</v>
+        <v>41997</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3510,10 +4134,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N7" s="7">
-        <v>130202</v>
+        <v>85029</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3533,151 +4157,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>40597</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>38731</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>79328</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7">
-        <v>21498</v>
+        <v>23046</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>24487</v>
+        <v>24637</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N9" s="7">
-        <v>45984</v>
+        <v>47683</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>43026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>28171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>71197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,10 +4310,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>62095</v>
+        <v>66072</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3701,10 +4325,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I11" s="7">
-        <v>63218</v>
+        <v>52808</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3716,10 +4340,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N11" s="7">
-        <v>125312</v>
+        <v>118880</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3739,151 +4363,151 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>47661</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="H12" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>50261</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>97923</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>12909</v>
+        <v>11044</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>13629</v>
+        <v>14551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>26538</v>
+        <v>25594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>35183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>39608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>74792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7">
-        <v>60570</v>
+        <v>46227</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -3907,10 +4531,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I15" s="7">
-        <v>63890</v>
+        <v>54159</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3922,10 +4546,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="N15" s="7">
-        <v>124461</v>
+        <v>100386</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -3939,157 +4563,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>121405</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>112095</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>233500</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>71091</v>
+        <v>8755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>75384</v>
+        <v>9086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>146475</v>
+        <v>17841</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>28409</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>29430</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>57839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,55 +4722,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>49</v>
+      </c>
+      <c r="D19" s="7">
+        <v>37164</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>56</v>
+      </c>
+      <c r="I19" s="7">
+        <v>38516</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>105</v>
+      </c>
+      <c r="N19" s="7">
+        <v>75680</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>103</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71091</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H21" s="7">
+        <v>117</v>
+      </c>
+      <c r="I21" s="7">
+        <v>75384</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M21" s="7">
+        <v>220</v>
+      </c>
+      <c r="N21" s="7">
+        <v>146475</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>171</v>
+      </c>
+      <c r="D22" s="7">
+        <v>121405</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" s="7">
+        <v>165</v>
+      </c>
+      <c r="I22" s="7">
+        <v>112095</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M22" s="7">
+        <v>336</v>
+      </c>
+      <c r="N22" s="7">
+        <v>233500</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>274</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>192496</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>282</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>187479</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>556</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>379975</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4159,8 +4995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163FE52-4629-405E-819D-91F49708B1BA}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E8680F-A3A1-4FC6-AE9E-28E6F840BC5F}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4176,7 +5012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4279,68 +5115,64 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4349,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4364,64 +5196,62 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>2821</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>4325</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,25 +5260,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2821</v>
+        <v>1813</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4460,10 +5288,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>4325</v>
+        <v>1813</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4483,55 +5311,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2907</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>4763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4540,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4555,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4570,64 +5398,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>5522</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>6225</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,10 +5464,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>703</v>
+        <v>1856</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4651,10 +5479,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>5522</v>
+        <v>2907</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4666,10 +5494,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>6225</v>
+        <v>4763</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4689,55 +5517,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>4017</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>5762</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4746,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4761,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4776,64 +5604,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="H14" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>11710</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>23085</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>36</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,10 +5670,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>11375</v>
+        <v>1745</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4857,10 +5685,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>11710</v>
+        <v>4017</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4872,10 +5700,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="N15" s="7">
-        <v>23085</v>
+        <v>5762</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4889,61 +5717,61 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>9982</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>11316</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>21298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4952,13 +5780,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4967,13 +5795,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4982,64 +5810,64 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>13583</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>345</v>
       </c>
       <c r="H18" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>20053</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="M18" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>33636</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,55 +5876,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7">
+        <v>9982</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7">
+        <v>11316</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>26</v>
+      </c>
+      <c r="N19" s="7">
+        <v>21298</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>13583</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="7">
         <v>31</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I20" s="7">
         <v>20053</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="7">
         <v>48</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N20" s="7">
         <v>33636</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <v>13583</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
+        <v>31</v>
+      </c>
+      <c r="I23" s="7">
+        <v>20053</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
+        <v>48</v>
+      </c>
+      <c r="N23" s="7">
+        <v>33636</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{811F4879-36CE-4D46-972F-DACF6EB50B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{919E7DE6-0429-48B0-BCE5-1AB3BED6673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56208CFF-8E5B-46FB-A51A-0014B239773C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9322A7B0-957A-44C7-B15C-07C0AA030467}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -95,28 +95,28 @@
     <t>55,11%</t>
   </si>
   <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>59,67%</t>
   </si>
   <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>57,09%</t>
   </si>
   <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>44,89%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
   </si>
   <si>
     <t>40,33%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
   </si>
   <si>
     <t>42,91%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>48,46%</t>
   </si>
   <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
   </si>
   <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
   </si>
   <si>
     <t>51,54%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>57,26%</t>
   </si>
   <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -233,55 +233,55 @@
     <t>20,89%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -296,55 +296,55 @@
     <t>22,71%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -359,55 +359,55 @@
     <t>39,6%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -428,481 +428,481 @@
     <t>63,42%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>67,51%</t>
   </si>
   <si>
-    <t>57,18%</t>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>73,13%</t>
   </si>
   <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
   </si>
   <si>
     <t>3,36%</t>
@@ -914,55 +914,55 @@
     <t>23,56%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>76,41%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -977,55 +977,55 @@
     <t>36,93%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>38,55%</t>
   </si>
   <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>59,79%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>61,45%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
@@ -1509,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED581D95-EA51-4C29-B5CC-760207274E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94D9F21-C66D-42A8-B8ED-AF76949D6A62}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2671,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB18A2-FEAF-4E8A-A92B-F44189E26B71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BB8B84-5B1D-4619-B0CC-9135D1107D38}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3485,7 +3485,7 @@
         <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3494,13 +3494,13 @@
         <v>10705</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3515,13 @@
         <v>29025</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -3530,13 +3530,13 @@
         <v>19235</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -3545,13 +3545,13 @@
         <v>48260</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,37 +3625,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3670,13 @@
         <v>44214</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -3685,13 +3685,13 @@
         <v>59122</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>147</v>
@@ -3700,13 +3700,13 @@
         <v>103336</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3721,13 @@
         <v>87578</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -3736,13 +3736,13 @@
         <v>76814</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>238</v>
@@ -3751,13 +3751,13 @@
         <v>164392</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E58068-6899-4DBC-9CF2-E62446924A82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655EC91E-5B46-476C-937F-1A8BC101C7F9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4008,13 +4008,13 @@
         <v>28247</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>44</v>
@@ -4023,13 +4023,13 @@
         <v>27111</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -4038,13 +4038,13 @@
         <v>55357</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4059,13 @@
         <v>14786</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -4074,13 +4074,13 @@
         <v>14886</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -4089,13 +4089,13 @@
         <v>29672</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,37 +4169,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4214,13 @@
         <v>23046</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>38</v>
@@ -4229,13 +4229,13 @@
         <v>24637</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>73</v>
@@ -4244,13 +4244,13 @@
         <v>47683</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4265,13 @@
         <v>43026</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4280,13 +4280,13 @@
         <v>28171</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -4295,13 +4295,13 @@
         <v>71197</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,37 +4375,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4420,13 @@
         <v>11044</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4435,13 +4435,13 @@
         <v>14551</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4450,13 +4450,13 @@
         <v>25594</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,7 +4471,7 @@
         <v>35183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>280</v>
@@ -4995,7 +4995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E8680F-A3A1-4FC6-AE9E-28E6F840BC5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F22AD4-30DB-40D9-B9ED-C7C659930847}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{919E7DE6-0429-48B0-BCE5-1AB3BED6673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48867F2D-11F3-493E-81A7-A864DE80708A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9322A7B0-957A-44C7-B15C-07C0AA030467}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{81A7C87D-FEF3-4E69-ACD7-446F36D4B90C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="353">
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="455">
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,1024 +80,1330 @@
     <t>0%</t>
   </si>
   <si>
+    <t>6,81%</t>
+  </si>
+  <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
     <t>3,04%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>57,09%</t>
   </si>
   <si>
-    <t>44,86%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2023 (Tasa respuesta: 26,09%)</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94D9F21-C66D-42A8-B8ED-AF76949D6A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD480824-B552-4B07-B300-CEE630C50158}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1678,10 +1984,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>12997</v>
+        <v>10804</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1693,10 +1999,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>10804</v>
+        <v>12997</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1729,10 +2035,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>10587</v>
+        <v>7303</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1744,10 +2050,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>7303</v>
+        <v>10587</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1780,25 +2086,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18107</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>35</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>23584</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7">
-        <v>18107</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1884,10 +2190,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>17853</v>
+        <v>14857</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>41</v>
@@ -1899,10 +2205,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>14857</v>
+        <v>17853</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -1935,10 +2241,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>18986</v>
+        <v>24831</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1950,10 +2256,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>24831</v>
+        <v>18986</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1986,25 +2292,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7">
+        <v>39688</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>55</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>36839</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>58</v>
-      </c>
-      <c r="I11" s="7">
-        <v>39688</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2090,10 +2396,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3519</v>
+        <v>2695</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -2105,10 +2411,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>2695</v>
+        <v>3519</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -2141,10 +2447,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>13325</v>
+        <v>20382</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -2156,10 +2462,10 @@
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>20382</v>
+        <v>13325</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -2192,25 +2498,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7">
+        <v>23077</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>25</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>16844</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>34</v>
-      </c>
-      <c r="I15" s="7">
-        <v>23077</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2257,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2272,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2296,10 +2602,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>5068</v>
+        <v>2789</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>84</v>
@@ -2311,10 +2617,10 @@
         <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>2789</v>
+        <v>5068</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>87</v>
@@ -2347,10 +2653,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>17242</v>
+        <v>15739</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>93</v>
@@ -2362,10 +2668,10 @@
         <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>15739</v>
+        <v>17242</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>96</v>
@@ -2398,25 +2704,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18528</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>33</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>22310</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18528</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2502,10 +2808,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D21" s="7">
-        <v>39436</v>
+        <v>31145</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>105</v>
@@ -2517,10 +2823,10 @@
         <v>107</v>
       </c>
       <c r="H21" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I21" s="7">
-        <v>31145</v>
+        <v>39436</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>108</v>
@@ -2553,10 +2859,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>60140</v>
+        <v>68255</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>114</v>
@@ -2568,10 +2874,10 @@
         <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>68255</v>
+        <v>60140</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>117</v>
@@ -2604,25 +2910,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>146</v>
+      </c>
+      <c r="D23" s="7">
+        <v>99400</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>148</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>99576</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>146</v>
-      </c>
-      <c r="I23" s="7">
-        <v>99400</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2671,7 +2977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BB8B84-5B1D-4619-B0CC-9135D1107D38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD50AE21-004A-4014-87DC-FC4BAF730BA3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,10 +3146,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>22194</v>
+        <v>23971</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>128</v>
@@ -2855,10 +3161,10 @@
         <v>130</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>23971</v>
+        <v>22194</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>131</v>
@@ -2891,10 +3197,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>12804</v>
+        <v>9411</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>137</v>
@@ -2906,10 +3212,10 @@
         <v>139</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>9411</v>
+        <v>12804</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>140</v>
@@ -2942,25 +3248,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7">
+        <v>33382</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>50</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>34998</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>51</v>
-      </c>
-      <c r="I7" s="7">
-        <v>33382</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3046,10 +3352,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>13890</v>
+        <v>21827</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>149</v>
@@ -3061,10 +3367,10 @@
         <v>151</v>
       </c>
       <c r="H9" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>21827</v>
+        <v>13890</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>152</v>
@@ -3097,10 +3403,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>27929</v>
+        <v>28866</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>158</v>
@@ -3112,10 +3418,10 @@
         <v>160</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>28866</v>
+        <v>27929</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>161</v>
@@ -3148,25 +3454,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7">
+        <v>50693</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>57</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>41819</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>73</v>
-      </c>
-      <c r="I11" s="7">
-        <v>50693</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3252,10 +3558,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>4103</v>
+        <v>6646</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>170</v>
@@ -3267,10 +3573,10 @@
         <v>172</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>6646</v>
+        <v>4103</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>173</v>
@@ -3294,7 +3600,7 @@
         <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,34 +3609,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7">
+        <v>19303</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="7">
         <v>25</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>17820</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="7">
-        <v>28</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19303</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -3339,13 +3645,13 @@
         <v>37124</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,25 +3660,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>25949</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>31</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>21923</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
-      <c r="I15" s="7">
-        <v>25949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3419,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3434,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3449,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,34 +3764,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6678</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7">
         <v>6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>4027</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="7">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6678</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3494,13 +3800,13 @@
         <v>10705</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,31 +3815,31 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19235</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="7">
         <v>43</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>29025</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="7">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7">
-        <v>19235</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>202</v>
@@ -3560,25 +3866,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25913</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>49</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>33052</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25913</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -3664,10 +3970,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D21" s="7">
-        <v>44214</v>
+        <v>59122</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>209</v>
@@ -3679,10 +3985,10 @@
         <v>211</v>
       </c>
       <c r="H21" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I21" s="7">
-        <v>59122</v>
+        <v>44214</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>212</v>
@@ -3715,10 +4021,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7">
-        <v>87578</v>
+        <v>76814</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>218</v>
@@ -3730,10 +4036,10 @@
         <v>220</v>
       </c>
       <c r="H22" s="7">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I22" s="7">
-        <v>76814</v>
+        <v>87578</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>221</v>
@@ -3766,25 +4072,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>198</v>
+      </c>
+      <c r="D23" s="7">
+        <v>135936</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>187</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>131792</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>198</v>
-      </c>
-      <c r="I23" s="7">
-        <v>135936</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3833,7 +4139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655EC91E-5B46-476C-937F-1A8BC101C7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94B71C8-346E-448E-A20F-A227F033DCC5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3963,7 +4269,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3978,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4002,10 +4308,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>28247</v>
+        <v>27111</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>228</v>
@@ -4017,10 +4323,10 @@
         <v>230</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I5" s="7">
-        <v>27111</v>
+        <v>28247</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>231</v>
@@ -4053,10 +4359,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
-        <v>14786</v>
+        <v>14886</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>237</v>
@@ -4068,10 +4374,10 @@
         <v>239</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>14886</v>
+        <v>14786</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>240</v>
@@ -4104,25 +4410,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>41997</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>62</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>43033</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>68</v>
-      </c>
-      <c r="I7" s="7">
-        <v>41997</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4208,10 +4514,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>23046</v>
+        <v>24637</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>249</v>
@@ -4223,10 +4529,10 @@
         <v>251</v>
       </c>
       <c r="H9" s="7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>24637</v>
+        <v>23046</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>252</v>
@@ -4259,10 +4565,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>43026</v>
+        <v>28171</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>258</v>
@@ -4274,10 +4580,10 @@
         <v>260</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>28171</v>
+        <v>43026</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>261</v>
@@ -4310,25 +4616,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>82</v>
+      </c>
+      <c r="D11" s="7">
+        <v>52808</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>98</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>66072</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>82</v>
-      </c>
-      <c r="I11" s="7">
-        <v>52808</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4414,10 +4720,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>11044</v>
+        <v>14551</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>270</v>
@@ -4429,10 +4735,10 @@
         <v>272</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>14551</v>
+        <v>11044</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>273</v>
@@ -4465,10 +4771,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>35183</v>
+        <v>39608</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>279</v>
@@ -4480,10 +4786,10 @@
         <v>281</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>39608</v>
+        <v>35183</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>282</v>
@@ -4516,25 +4822,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>76</v>
+      </c>
+      <c r="D15" s="7">
+        <v>54159</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>65</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>46227</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>76</v>
-      </c>
-      <c r="I15" s="7">
-        <v>54159</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4581,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4596,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4620,34 +4926,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9086</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>8755</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9086</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4656,13 +4962,13 @@
         <v>17841</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,34 +4977,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>29430</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H18" s="7">
         <v>37</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>28409</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="7">
-        <v>42</v>
-      </c>
-      <c r="I18" s="7">
-        <v>29430</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -4707,13 +5013,13 @@
         <v>57839</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,25 +5028,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>56</v>
+      </c>
+      <c r="D19" s="7">
+        <v>38516</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>49</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>37164</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38516</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4787,7 +5093,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4802,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4817,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,34 +5132,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>117</v>
+      </c>
+      <c r="D21" s="7">
+        <v>75384</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" s="7">
         <v>103</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>71091</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H21" s="7">
-        <v>117</v>
-      </c>
-      <c r="I21" s="7">
-        <v>75384</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M21" s="7">
         <v>220</v>
@@ -4862,13 +5168,13 @@
         <v>146475</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,34 +5183,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>165</v>
+      </c>
+      <c r="D22" s="7">
+        <v>112095</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H22" s="7">
         <v>171</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>121405</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H22" s="7">
-        <v>165</v>
-      </c>
-      <c r="I22" s="7">
-        <v>112095</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>336</v>
@@ -4913,13 +5219,13 @@
         <v>233500</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,25 +5234,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>282</v>
+      </c>
+      <c r="D23" s="7">
+        <v>187479</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>274</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>192496</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>282</v>
-      </c>
-      <c r="I23" s="7">
-        <v>187479</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4995,7 +5301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F22AD4-30DB-40D9-B9ED-C7C659930847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F24B14-A444-4F3C-8C15-474E9210199D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5012,7 +5318,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5113,47 +5419,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1808</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>330</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1813</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>36</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,47 +5470,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7737</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>10703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>18441</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,47 +5521,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7243</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>9009</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>16252</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,23 +5572,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16788</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>1813</v>
+        <v>19712</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5288,10 +5602,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7">
-        <v>1813</v>
+        <v>36501</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5311,49 +5625,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2851</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
-        <v>1856</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
       <c r="I8" s="7">
-        <v>2907</v>
+        <v>1903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>4763</v>
+        <v>4754</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,49 +5676,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>18570</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>17583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>36153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,49 +5727,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>18256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>28280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>46536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,10 +5778,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>1856</v>
+        <v>39677</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -5479,10 +5793,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7">
-        <v>2907</v>
+        <v>47766</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5494,10 +5808,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="N11" s="7">
-        <v>4763</v>
+        <v>87443</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5517,49 +5831,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
-        <v>1745</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
       <c r="I12" s="7">
-        <v>4017</v>
+        <v>1819</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5762</v>
+        <v>5652</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,46 +5882,46 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>10535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>15584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>26119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>337</v>
@@ -5619,49 +5933,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>28423</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>33739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>62163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,10 +5984,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7">
-        <v>1745</v>
+        <v>42792</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5685,10 +5999,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I15" s="7">
-        <v>4017</v>
+        <v>51142</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5700,10 +6014,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="N15" s="7">
-        <v>5762</v>
+        <v>93934</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5723,49 +6037,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10920</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
-        <v>9982</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
       <c r="I16" s="7">
-        <v>11316</v>
+        <v>10174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>21298</v>
+        <v>21094</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>331</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,49 +6088,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>13199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>31630</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>44830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,49 +6139,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>39194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>420</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>421</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>345</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>49996</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>89190</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,10 +6190,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D19" s="7">
-        <v>9982</v>
+        <v>63313</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5891,10 +6205,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I19" s="7">
-        <v>11316</v>
+        <v>91801</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5906,10 +6220,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="N19" s="7">
-        <v>21298</v>
+        <v>155114</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5929,49 +6243,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7">
+        <v>19412</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H20" s="7">
         <v>17</v>
       </c>
-      <c r="D20" s="7">
-        <v>13583</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="7">
-        <v>31</v>
-      </c>
       <c r="I20" s="7">
-        <v>20053</v>
+        <v>13896</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
       </c>
       <c r="N20" s="7">
-        <v>33636</v>
+        <v>33308</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,49 +6294,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>50041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>75501</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>167</v>
+        <v>442</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>125542</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,49 +6345,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>93117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>447</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>448</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>121025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>451</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>214142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>452</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>453</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,10 +6396,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="D23" s="7">
-        <v>13583</v>
+        <v>162570</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -6097,10 +6411,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I23" s="7">
-        <v>20053</v>
+        <v>210422</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -6112,10 +6426,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>48</v>
+        <v>501</v>
       </c>
       <c r="N23" s="7">
-        <v>33636</v>
+        <v>372992</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
